--- a/spliced/falling/2023-03-25_17-56-04/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-56-04/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0171042270958423</v>
+        <v>-0.0114537235349416</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0526871271431446</v>
+        <v>-0.0215329993516206</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0519235469400882</v>
+        <v>0.0035124751739203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0067195175215601</v>
+        <v>-0.0171042270958423</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1915062516927719</v>
+        <v>-0.0526871271431446</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0238237436860799</v>
+        <v>0.0519235469400882</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.001527163083665</v>
+        <v>0.0067195175215601</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3747658133506775</v>
+        <v>0.1915062516927719</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0192422550171613</v>
+        <v>-0.0238237436860799</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.3475823104381561</v>
+        <v>-0.001527163083665</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5015203952789307</v>
+        <v>0.3747658133506775</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2428189367055893</v>
+        <v>0.0192422550171613</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.2506074607372284</v>
+        <v>-0.3475823104381561</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8736900091171265</v>
+        <v>0.5015203952789307</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1963931769132614</v>
+        <v>-0.2428189367055893</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.168751522898674</v>
+        <v>-0.2506074607372284</v>
       </c>
       <c r="B7" t="n">
-        <v>0.936914563179016</v>
+        <v>0.8736900091171265</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.131183311343193</v>
+        <v>-0.1963931769132614</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.2408336251974105</v>
+        <v>-0.168751522898674</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.064446285367012</v>
+        <v>0.936914563179016</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3248275816440582</v>
+        <v>-0.131183311343193</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.2364048510789871</v>
+        <v>-0.2408336251974105</v>
       </c>
       <c r="B9" t="n">
-        <v>0.18539759516716</v>
+        <v>-0.064446285367012</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.519680023193359</v>
+        <v>-0.3248275816440582</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.216843605041504</v>
+        <v>-0.2364048510789871</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.400255799293518</v>
+        <v>0.18539759516716</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.343445420265198</v>
+        <v>-1.519680023193359</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.094823241233826</v>
+        <v>-1.216843605041504</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.151772737503052</v>
+        <v>-1.400255799293518</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7765624523162842</v>
+        <v>-1.343445420265198</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.2055561542510986</v>
+        <v>1.094823241233826</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.607033729553223</v>
+        <v>-2.151772737503052</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.9816604256629944</v>
+        <v>0.7765624523162842</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.5111414790153503</v>
+        <v>-0.2055561542510986</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.858557462692261</v>
+        <v>-1.607033729553223</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0117591563612222</v>
+        <v>-0.9816604256629944</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.3014619946479797</v>
+        <v>-0.5111414790153503</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.9010262489318848</v>
+        <v>-1.858557462692261</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4983133375644684</v>
+        <v>0.0117591563612222</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.2797762751579284</v>
+        <v>-0.3014619946479797</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.265254616737366</v>
+        <v>-0.9010262489318848</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2492330223321914</v>
+        <v>0.4983133375644684</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.2038762718439102</v>
+        <v>-0.2797762751579284</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.481042742729187</v>
+        <v>-1.265254616737366</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2376265823841095</v>
+        <v>0.2492330223321914</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.328340083360672</v>
+        <v>0.2038762718439102</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6785185933113098</v>
+        <v>-1.481042742729187</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7831292152404785</v>
+        <v>-0.2376265823841095</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0797179117798805</v>
+        <v>-0.328340083360672</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1185078546404838</v>
+        <v>0.6785185933113098</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2952006161212921</v>
+        <v>0.7831292152404785</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0479529201984405</v>
+        <v>0.0797179117798805</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3949243724346161</v>
+        <v>0.1185078546404838</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1617265790700912</v>
+        <v>0.2952006161212921</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.08704829961061469</v>
+        <v>0.0479529201984405</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.058643065392971</v>
+        <v>0.3949243724346161</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2785545587539673</v>
+        <v>-0.1617265790700912</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.0519235469400882</v>
+        <v>-0.08704829961061469</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.107512280344963</v>
+        <v>-0.058643065392971</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1065959855914115</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.0108428578823804</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0210748501121997</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.0189368221908807</v>
+        <v>-0.2785545587539673</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-56-04/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-56-04/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0114537235349416</v>
+        <v>-0.0042760567739605</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0215329993516206</v>
+        <v>-0.1111774742603302</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0035124751739203</v>
+        <v>-0.0980438739061355</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0171042270958423</v>
+        <v>0.0734565481543541</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0526871271431446</v>
+        <v>0.1905899494886398</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0519235469400882</v>
+        <v>-0.1611157059669494</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0067195175215601</v>
+        <v>-0.101709060370922</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1915062516927719</v>
+        <v>-0.09025534242391579</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0238237436860799</v>
+        <v>0.1893682330846786</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.001527163083665</v>
+        <v>-0.0087048299610614</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3747658133506775</v>
+        <v>0.024892758578062</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0192422550171613</v>
+        <v>0.00167987938039</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.3475823104381561</v>
+        <v>0.0125227374956011</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5015203952789307</v>
+        <v>-0.0652098655700683</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2428189367055893</v>
+        <v>0.066737025976181</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.2506074607372284</v>
+        <v>-0.0397062413394451</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8736900091171265</v>
+        <v>0.0247400421649217</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1963931769132614</v>
+        <v>0.030695978552103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.168751522898674</v>
+        <v>0.012980886735022</v>
       </c>
       <c r="B8" t="n">
-        <v>0.936914563179016</v>
+        <v>0.0633772686123848</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.131183311343193</v>
+        <v>-0.0366519130766391</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.2408336251974105</v>
+        <v>-0.0360410511493682</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.064446285367012</v>
+        <v>0.0274889357388019</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3248275816440582</v>
+        <v>-0.0474947728216648</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.2364048510789871</v>
+        <v>-0.0114537235349416</v>
       </c>
       <c r="B10" t="n">
-        <v>0.18539759516716</v>
+        <v>-0.0215329993516206</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.519680023193359</v>
+        <v>0.0035124751739203</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.216843605041504</v>
+        <v>-0.0171042270958423</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.400255799293518</v>
+        <v>-0.0526871271431446</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.343445420265198</v>
+        <v>0.0519235469400882</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.094823241233826</v>
+        <v>0.0067195175215601</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.151772737503052</v>
+        <v>0.1915062516927719</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7765624523162842</v>
+        <v>-0.0238237436860799</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.2055561542510986</v>
+        <v>-0.001527163083665</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.607033729553223</v>
+        <v>0.3747658133506775</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.9816604256629944</v>
+        <v>0.0192422550171613</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.5111414790153503</v>
+        <v>-0.3475823104381561</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.858557462692261</v>
+        <v>0.5015203952789307</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0117591563612222</v>
+        <v>-0.2428189367055893</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.3014619946479797</v>
+        <v>-0.2506074607372284</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.9010262489318848</v>
+        <v>0.8736900091171265</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4983133375644684</v>
+        <v>-0.1963931769132614</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.2797762751579284</v>
+        <v>-0.168751522898674</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.265254616737366</v>
+        <v>0.936914563179016</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2492330223321914</v>
+        <v>-0.131183311343193</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2038762718439102</v>
+        <v>-0.2408336251974105</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.481042742729187</v>
+        <v>-0.064446285367012</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2376265823841095</v>
+        <v>-0.3248275816440582</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.328340083360672</v>
+        <v>-0.2364048510789871</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6785185933113098</v>
+        <v>0.18539759516716</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7831292152404785</v>
+        <v>-1.519680023193359</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0797179117798805</v>
+        <v>-1.216843605041504</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1185078546404838</v>
+        <v>-1.400255799293518</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2952006161212921</v>
+        <v>-1.343445420265198</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0479529201984405</v>
+        <v>1.094823241233826</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3949243724346161</v>
+        <v>-2.151772737503052</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1617265790700912</v>
+        <v>0.7765624523162842</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.2055561542510986</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.607033729553223</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.9816604256629944</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.5111414790153503</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.858557462692261</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0117591563612222</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.3014619946479797</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.9010262489318848</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4983133375644684</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.2797762751579284</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.265254616737366</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2492330223321914</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.2038762718439102</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.481042742729187</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.2376265823841095</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.328340083360672</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6785185933113098</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7831292152404785</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.0797179117798805</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1185078546404838</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2952006161212921</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.0479529201984405</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.3949243724346161</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.1617265790700912</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
         <v>-0.08704829961061469</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B29" t="n">
         <v>-0.058643065392971</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C29" t="n">
         <v>-0.2785545587539673</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.0519235469400882</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.107512280344963</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1065959855914115</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.0108428578823804</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.0210748501121997</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.0189368221908807</v>
       </c>
     </row>
   </sheetData>
